--- a/src/assets/ThematicExample.xlsx
+++ b/src/assets/ThematicExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA39F4-18FF-4C77-B04B-14962DB6E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701022C8-D760-4BD7-844E-49FA26990547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Stocks</t>
   </si>
@@ -34,74 +34,116 @@
     <t>Monthly average Data</t>
   </si>
   <si>
-    <t>NIFTYADITYABIRLAGROUP</t>
-  </si>
-  <si>
-    <t>NiftyCommodities</t>
-  </si>
-  <si>
-    <t>NiftyCoreHousing</t>
-  </si>
-  <si>
-    <t>NiftyCPSE</t>
-  </si>
-  <si>
-    <t>NiftyEnergy</t>
-  </si>
-  <si>
-    <t>NiftyHousing</t>
-  </si>
-  <si>
-    <t>NIFTY100ESG</t>
-  </si>
-  <si>
-    <t>NIFTY100EnhancedESG</t>
-  </si>
-  <si>
-    <t>Nifty100ESGSecLdr</t>
-  </si>
-  <si>
-    <t>NiftyConsumption</t>
-  </si>
-  <si>
-    <t>NiftyIndiaDefence</t>
-  </si>
-  <si>
-    <t>NIFTYINDDIGITAL</t>
-  </si>
-  <si>
-    <t>NIFTYINDIAMFG</t>
-  </si>
-  <si>
-    <t>NiftyInfra</t>
-  </si>
-  <si>
-    <t>NIFTYMAHINDRAGROUP</t>
-  </si>
-  <si>
-    <t>NiftyMidSmallIndiaConsumption</t>
-  </si>
-  <si>
-    <t>NiftyMNC</t>
-  </si>
-  <si>
-    <t>NiftyMobility</t>
-  </si>
-  <si>
-    <t>NiftyNonCyclicalConsumer</t>
-  </si>
-  <si>
-    <t>NiftyServSector</t>
-  </si>
-  <si>
-    <t>NIFTYSHARIAH25</t>
+    <t>NFTCORPGRPIABG</t>
+  </si>
+  <si>
+    <t>NFTCOMM</t>
+  </si>
+  <si>
+    <t>NFTCH</t>
+  </si>
+  <si>
+    <t>NFTCPSE</t>
+  </si>
+  <si>
+    <t>NFTENG</t>
+  </si>
+  <si>
+    <t>NFTEVNAAMT</t>
+  </si>
+  <si>
+    <t>NFTHOUS</t>
+  </si>
+  <si>
+    <t>NFT100ESG</t>
+  </si>
+  <si>
+    <t>NFT100EESG</t>
+  </si>
+  <si>
+    <t>NFT100ESGSL</t>
+  </si>
+  <si>
+    <t>NFTCONS</t>
+  </si>
+  <si>
+    <t>NFTINDCONS</t>
+  </si>
+  <si>
+    <t>NFTINDDIG</t>
+  </si>
+  <si>
+    <t>NFTINDMFG</t>
+  </si>
+  <si>
+    <t>NFTINDTR</t>
+  </si>
+  <si>
+    <t>NFTINFS</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPIMG</t>
+  </si>
+  <si>
+    <t>NFTMCL15</t>
+  </si>
+  <si>
+    <t>NFTMSINDCON</t>
+  </si>
+  <si>
+    <t>NFTMNC</t>
+  </si>
+  <si>
+    <t>NFTMOB</t>
+  </si>
+  <si>
+    <t>NFTPSE</t>
+  </si>
+  <si>
+    <t>NFTRI</t>
+  </si>
+  <si>
+    <t>NFTNCC</t>
+  </si>
+  <si>
+    <t>NFTSERSEC</t>
+  </si>
+  <si>
+    <t>NFTSH25</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPITG</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPITG25%C</t>
+  </si>
+  <si>
+    <t>NFTTRANSLOG</t>
+  </si>
+  <si>
+    <t>NFT100L15</t>
+  </si>
+  <si>
+    <t>NFT50SH</t>
+  </si>
+  <si>
+    <t>NFT500SH</t>
+  </si>
+  <si>
+    <t>NFT500MULCINDMFG50:30:20</t>
+  </si>
+  <si>
+    <t>NFT500MULCINFS50:30:20</t>
+  </si>
+  <si>
+    <t>NFTSMEEMG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,6 +165,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,11 +221,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -412,201 +464,314 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0.46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0.46</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>0.46</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>0.46</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.45</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.46</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.65</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.65</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.65</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0.46</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>0.43</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>0.46</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>0.46</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0.46</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>0.46</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>0.47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/ThematicExample.xlsx
+++ b/src/assets/ThematicExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701022C8-D760-4BD7-844E-49FA26990547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257382D-5B72-41EE-8304-534ED5562BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>NFTINDCORPGRPITG</t>
   </si>
   <si>
-    <t>NFTINDCORPGRPITG25%C</t>
-  </si>
-  <si>
     <t>NFTTRANSLOG</t>
   </si>
   <si>
@@ -130,13 +127,16 @@
     <t>NFT500SH</t>
   </si>
   <si>
-    <t>NFT500MULCINDMFG50:30:20</t>
-  </si>
-  <si>
-    <t>NFT500MULCINFS50:30:20</t>
-  </si>
-  <si>
     <t>NFTSMEEMG</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPITG25PC</t>
+  </si>
+  <si>
+    <t>NFT500MULCINDMFG50_30_20</t>
+  </si>
+  <si>
+    <t>NFT500MULCINFS50_30_20</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,13 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +707,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4">
         <v>0.46</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4">
         <v>0.46</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4">
         <v>0.45</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4">
         <v>0.46</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4">
         <v>0.65</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4">
         <v>0.65</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4">
         <v>0.65</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>0.46</v>

--- a/src/assets/ThematicExample.xlsx
+++ b/src/assets/ThematicExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257382D-5B72-41EE-8304-534ED5562BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9977C1C-0A94-4319-8B16-85FF29632B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>NFTCONS</t>
   </si>
   <si>
-    <t>NFTINDCONS</t>
-  </si>
-  <si>
     <t>NFTINDDIG</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>NFT500MULCINFS50_30_20</t>
+  </si>
+  <si>
+    <t>NFTDEF</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>0.43</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>0.46</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>0.46</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>0.46</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.46</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>0.46</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>0.46</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4">
         <v>0.47</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <v>0.45</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4">
         <v>0.44</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4">
         <v>0.46</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
         <v>0.45</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4">
         <v>0.46</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4">
         <v>0.65</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4">
         <v>0.65</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>0.65</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4">
         <v>0.46</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
         <v>0.46</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>0.45</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>0.46</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
         <v>0.65</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>0.65</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4">
         <v>0.65</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>0.46</v>
